--- a/docs/ccc_selection_tasks_time.xlsx
+++ b/docs/ccc_selection_tasks_time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Desktop/wikipedia_cultural_diversity_observatory/schemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Desktop/wikipedia_cultural_diversity_observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92337F17-3301-1447-B180-B2685CC18F16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA198C9F-C4F7-1047-B0F2-5E75E9418071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{63680216-DC63-6248-95B9-EDD81A71E515}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>function</t>
   </si>
@@ -112,9 +112,6 @@
     <t>1 hora i quart</t>
   </si>
   <si>
-    <t>dies</t>
-  </si>
-  <si>
     <t>1 hora</t>
   </si>
   <si>
@@ -157,25 +154,22 @@
     <t>hours</t>
   </si>
   <si>
-    <t>ccc selection</t>
-  </si>
-  <si>
-    <t>una setmana fins aquí</t>
-  </si>
-  <si>
     <t>potential negative ccc features</t>
   </si>
   <si>
-    <t>uns 8-10 dies</t>
-  </si>
-  <si>
     <t>wcdo_stats</t>
   </si>
   <si>
-    <t>2 dies (?)</t>
-  </si>
-  <si>
-    <t>10 dies en total</t>
+    <t>8 days</t>
+  </si>
+  <si>
+    <t>other ccc features</t>
+  </si>
+  <si>
+    <t>ccc features</t>
+  </si>
+  <si>
+    <t>days</t>
   </si>
 </sst>
 </file>
@@ -205,18 +199,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +541,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -605,10 +593,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -675,15 +663,15 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -732,10 +720,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
         <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
       </c>
       <c r="C26">
         <v>22</v>
@@ -746,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -756,19 +744,19 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <f>SUM(C2:C30)/24</f>
         <v>3.7012499999999999</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -779,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9112E06D-27DD-D347-B877-5085C5D495E5}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,12 +780,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -805,7 +793,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -813,46 +801,48 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <f>8*24</f>
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
         <f>SUM(C2:C10)/24</f>
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
